--- a/output/1Y_P49_KFSDIV.xlsx
+++ b/output/1Y_P49_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>17.107</v>
       </c>
       <c r="C2" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D2" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>584.556</v>
+        <v>583.3863</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>16.8894</v>
       </c>
       <c r="C3" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D3" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E3" s="1">
-        <v>584.556</v>
+        <v>583.3863</v>
       </c>
       <c r="F3" s="1">
-        <v>592.0873</v>
+        <v>590.9048</v>
       </c>
       <c r="H3" s="1">
-        <v>9872.742200000001</v>
+        <v>9833.326499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9872.742200000001</v>
+        <v>9833.326499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0127</v>
+        <v>-0.0167</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>16.4004</v>
       </c>
       <c r="C4" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D4" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E4" s="1">
-        <v>1176.6434</v>
+        <v>1174.2911</v>
       </c>
       <c r="F4" s="1">
-        <v>609.7412</v>
+        <v>608.5205</v>
       </c>
       <c r="H4" s="1">
-        <v>19297.422</v>
+        <v>19220.3273</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19297.422</v>
+        <v>19220.3273</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>16.9975</v>
+        <v>17.0316</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.029</v>
+        <v>-0.0309</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>15.3877</v>
       </c>
       <c r="C5" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D5" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E5" s="1">
-        <v>1786.3846</v>
+        <v>1782.8116</v>
       </c>
       <c r="F5" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="H5" s="1">
-        <v>27488.3503</v>
+        <v>27378.4598</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27488.3503</v>
+        <v>27378.4598</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>16.7937</v>
+        <v>16.8274</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0617</v>
+        <v>-0.063</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>14.6367</v>
       </c>
       <c r="C6" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D6" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E6" s="1">
-        <v>2436.2543</v>
+        <v>2431.3831</v>
       </c>
       <c r="F6" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="H6" s="1">
-        <v>35658.7233</v>
+        <v>35516.1861</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>35658.7233</v>
+        <v>35516.1861</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>16.4186</v>
+        <v>16.4515</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0488</v>
+        <v>-0.0498</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>13.0061</v>
       </c>
       <c r="C7" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D7" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E7" s="1">
-        <v>3119.4684</v>
+        <v>3113.2323</v>
       </c>
       <c r="F7" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="H7" s="1">
-        <v>40572.1181</v>
+        <v>40410.0668</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>40572.1181</v>
+        <v>40410.0668</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>16.0284</v>
+        <v>16.0605</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1096.3144</v>
+        <v>1094.1224</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8903.685600000001</v>
+        <v>-8905.8776</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.1114</v>
+        <v>-0.1122</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>13.835</v>
       </c>
       <c r="C8" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D8" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E8" s="1">
-        <v>3888.3384</v>
+        <v>3880.5625</v>
       </c>
       <c r="F8" s="1">
-        <v>736.0115</v>
+        <v>734.5145</v>
       </c>
       <c r="H8" s="1">
-        <v>53795.1618</v>
+        <v>53580.0902</v>
       </c>
       <c r="I8" s="1">
-        <v>1096.3144</v>
+        <v>1094.1224</v>
       </c>
       <c r="J8" s="1">
-        <v>54891.4763</v>
+        <v>54674.2126</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>15.4308</v>
+        <v>15.4617</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10182.7191</v>
+        <v>-10182.3537</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0854</v>
+        <v>0.08459999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>14.4216</v>
       </c>
       <c r="C9" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D9" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E9" s="1">
-        <v>4624.3499</v>
+        <v>4615.0769</v>
       </c>
       <c r="F9" s="1">
-        <v>706.0742</v>
+        <v>704.6368</v>
       </c>
       <c r="H9" s="1">
-        <v>66690.5246</v>
+        <v>66423.87940000001</v>
       </c>
       <c r="I9" s="1">
-        <v>913.5954</v>
+        <v>911.7687</v>
       </c>
       <c r="J9" s="1">
-        <v>67604.11990000001</v>
+        <v>67335.648</v>
       </c>
       <c r="K9" s="1">
-        <v>70182.7191</v>
+        <v>70182.35370000001</v>
       </c>
       <c r="L9" s="1">
-        <v>15.1768</v>
+        <v>15.2072</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10182.7191</v>
+        <v>-10182.3537</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0418</v>
+        <v>0.0412</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>13.2404</v>
       </c>
       <c r="C10" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D10" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E10" s="1">
-        <v>5330.4241</v>
+        <v>5319.7137</v>
       </c>
       <c r="F10" s="1">
-        <v>769.0643</v>
+        <v>767.5006</v>
       </c>
       <c r="H10" s="1">
-        <v>70576.9467</v>
+        <v>70294.1651</v>
       </c>
       <c r="I10" s="1">
-        <v>730.8763</v>
+        <v>729.4149</v>
       </c>
       <c r="J10" s="1">
-        <v>71307.823</v>
+        <v>71023.58</v>
       </c>
       <c r="K10" s="1">
-        <v>80365.4381</v>
+        <v>80364.7075</v>
       </c>
       <c r="L10" s="1">
-        <v>15.0767</v>
+        <v>15.107</v>
       </c>
       <c r="M10" s="1">
         <v>0.4</v>
       </c>
       <c r="N10" s="1">
-        <v>1664.766</v>
+        <v>1661.4277</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8517.953100000001</v>
+        <v>-8520.925999999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.08110000000000001</v>
+        <v>-0.08160000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>12.382</v>
       </c>
       <c r="C11" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D11" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E11" s="1">
-        <v>6099.4884</v>
+        <v>6087.2143</v>
       </c>
       <c r="F11" s="1">
-        <v>867.1976</v>
+        <v>865.3451</v>
       </c>
       <c r="H11" s="1">
-        <v>75523.86500000001</v>
+        <v>75220.92479999999</v>
       </c>
       <c r="I11" s="1">
-        <v>2212.9232</v>
+        <v>2208.4889</v>
       </c>
       <c r="J11" s="1">
-        <v>77736.7882</v>
+        <v>77429.4137</v>
       </c>
       <c r="K11" s="1">
-        <v>90548.1572</v>
+        <v>90547.0612</v>
       </c>
       <c r="L11" s="1">
-        <v>14.8452</v>
+        <v>14.875</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10737.6411</v>
+        <v>-10736.163</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0439</v>
+        <v>-0.0444</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>11.9583</v>
       </c>
       <c r="C12" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D12" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E12" s="1">
-        <v>6966.686</v>
+        <v>6952.5594</v>
       </c>
       <c r="F12" s="1">
-        <v>897.9237000000001</v>
+        <v>896.0019</v>
       </c>
       <c r="H12" s="1">
-        <v>83309.7212</v>
+        <v>82974.62450000001</v>
       </c>
       <c r="I12" s="1">
-        <v>1475.2821</v>
+        <v>1472.3259</v>
       </c>
       <c r="J12" s="1">
-        <v>84785.0033</v>
+        <v>84446.9504</v>
       </c>
       <c r="K12" s="1">
-        <v>101285.7983</v>
+        <v>101283.2242</v>
       </c>
       <c r="L12" s="1">
-        <v>14.5386</v>
+        <v>14.5678</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10737.6411</v>
+        <v>-10736.163</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0336</v>
+        <v>-0.0341</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>12.2036</v>
       </c>
       <c r="C13" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D13" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E13" s="1">
-        <v>7864.6097</v>
+        <v>7848.5612</v>
       </c>
       <c r="F13" s="1">
-        <v>879.8749</v>
+        <v>877.9911</v>
       </c>
       <c r="H13" s="1">
-        <v>95976.55100000001</v>
+        <v>95589.19680000001</v>
       </c>
       <c r="I13" s="1">
-        <v>737.6411000000001</v>
+        <v>736.163</v>
       </c>
       <c r="J13" s="1">
-        <v>96714.1921</v>
+        <v>96325.3597</v>
       </c>
       <c r="K13" s="1">
-        <v>112023.4393</v>
+        <v>112019.3871</v>
       </c>
       <c r="L13" s="1">
-        <v>14.244</v>
+        <v>14.2726</v>
       </c>
       <c r="M13" s="1">
         <v>0.4</v>
       </c>
       <c r="N13" s="1">
-        <v>2508.007</v>
+        <v>2502.9214</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8229.634099999999</v>
+        <v>-8233.241599999999</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0204</v>
+        <v>0.0199</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>12.9136</v>
       </c>
       <c r="C14" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D14" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E14" s="1">
-        <v>8744.4846</v>
+        <v>8726.552299999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-8744.4846</v>
+        <v>-8726.552299999999</v>
       </c>
       <c r="H14" s="1">
-        <v>112922.7761</v>
+        <v>112466.061</v>
       </c>
       <c r="I14" s="1">
-        <v>2508.007</v>
+        <v>2502.9214</v>
       </c>
       <c r="J14" s="1">
-        <v>115430.7831</v>
+        <v>114968.9823</v>
       </c>
       <c r="K14" s="1">
-        <v>122761.0804</v>
+        <v>122755.5501</v>
       </c>
       <c r="L14" s="1">
-        <v>14.0387</v>
+        <v>14.0669</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112922.7761</v>
+        <v>112466.061</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.08169999999999999</v>
+        <v>0.0813</v>
       </c>
     </row>
   </sheetData>
@@ -1385,8 +1385,8 @@
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
@@ -1456,16 +1456,16 @@
         <v>17.107</v>
       </c>
       <c r="C2" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D2" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>584.556</v>
+        <v>583.3863</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>16.8894</v>
       </c>
       <c r="C3" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D3" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E3" s="1">
-        <v>584.556</v>
+        <v>583.3863</v>
       </c>
       <c r="F3" s="1">
-        <v>592.0873</v>
+        <v>590.9048</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9872.742200000001</v>
+        <v>9833.326499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9872.742200000001</v>
+        <v>9833.326499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0127</v>
+        <v>-0.0167</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>16.4004</v>
       </c>
       <c r="C4" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D4" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E4" s="1">
-        <v>1176.6434</v>
+        <v>1174.2911</v>
       </c>
       <c r="F4" s="1">
-        <v>609.7412</v>
+        <v>608.5205</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19297.422</v>
+        <v>19220.3273</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19297.422</v>
+        <v>19220.3273</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>16.9975</v>
+        <v>17.0316</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.029</v>
+        <v>-0.0309</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>15.3877</v>
       </c>
       <c r="C5" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D5" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E5" s="1">
-        <v>1786.3846</v>
+        <v>1782.8116</v>
       </c>
       <c r="F5" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>27488.3503</v>
+        <v>27378.4598</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27488.3503</v>
+        <v>27378.4598</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>16.7937</v>
+        <v>16.8274</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0617</v>
+        <v>-0.063</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>14.6367</v>
       </c>
       <c r="C6" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D6" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E6" s="1">
-        <v>2436.2543</v>
+        <v>2431.3831</v>
       </c>
       <c r="F6" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>35658.7233</v>
+        <v>35516.1861</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>35658.7233</v>
+        <v>35516.1861</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>16.4186</v>
+        <v>16.4515</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0488</v>
+        <v>-0.0498</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>13.0061</v>
       </c>
       <c r="C7" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D7" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E7" s="1">
-        <v>3119.4684</v>
+        <v>3113.2323</v>
       </c>
       <c r="F7" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>40572.1181</v>
+        <v>40410.0668</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>40572.1181</v>
+        <v>40410.0668</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>16.0284</v>
+        <v>16.0605</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1096.3144</v>
+        <v>1094.1224</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8903.685600000001</v>
+        <v>-8905.8776</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.1114</v>
+        <v>-0.1122</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>13.835</v>
       </c>
       <c r="C8" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D8" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E8" s="1">
-        <v>3888.3384</v>
+        <v>3880.5625</v>
       </c>
       <c r="F8" s="1">
-        <v>802.0466</v>
+        <v>800.2858</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>53795.1618</v>
+        <v>53580.0902</v>
       </c>
       <c r="I8" s="1">
-        <v>1096.3144</v>
+        <v>1094.1224</v>
       </c>
       <c r="J8" s="1">
-        <v>54891.4763</v>
+        <v>54674.2126</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>15.4308</v>
+        <v>15.4617</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11096.3144</v>
+        <v>-11094.1224</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0854</v>
+        <v>0.08459999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>14.4216</v>
       </c>
       <c r="C9" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D9" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E9" s="1">
-        <v>4690.385</v>
+        <v>4680.8483</v>
       </c>
       <c r="F9" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>67642.8561</v>
+        <v>67370.5134</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>67642.8561</v>
+        <v>67370.5134</v>
       </c>
       <c r="K9" s="1">
-        <v>71096.3144</v>
+        <v>71094.12239999999</v>
       </c>
       <c r="L9" s="1">
-        <v>15.1579</v>
+        <v>15.1883</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0424</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>13.2404</v>
       </c>
       <c r="C10" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D10" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E10" s="1">
-        <v>5383.7893</v>
+        <v>5372.8659</v>
       </c>
       <c r="F10" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>71283.5242</v>
+        <v>70996.51240000001</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>71283.5242</v>
+        <v>70996.51240000001</v>
       </c>
       <c r="K10" s="1">
-        <v>81096.3144</v>
+        <v>81094.12239999999</v>
       </c>
       <c r="L10" s="1">
-        <v>15.0631</v>
+        <v>15.0933</v>
       </c>
       <c r="M10" s="1">
         <v>0.4</v>
       </c>
       <c r="N10" s="1">
-        <v>1688.5386</v>
+        <v>1685.1054</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8311.4614</v>
+        <v>-8314.8946</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0819</v>
+        <v>-0.0824</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>12.382</v>
       </c>
       <c r="C11" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D11" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E11" s="1">
-        <v>6139.0535</v>
+        <v>6126.6215</v>
       </c>
       <c r="F11" s="1">
-        <v>943.9944</v>
+        <v>941.8307</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>76013.76059999999</v>
+        <v>75707.88679999999</v>
       </c>
       <c r="I11" s="1">
-        <v>1688.5386</v>
+        <v>1685.1054</v>
       </c>
       <c r="J11" s="1">
-        <v>77702.29919999999</v>
+        <v>77392.99219999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91096.3144</v>
+        <v>91094.12239999999</v>
       </c>
       <c r="L11" s="1">
-        <v>14.8388</v>
+        <v>14.8686</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11688.5386</v>
+        <v>-11685.1054</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0441</v>
+        <v>-0.0445</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>11.9583</v>
       </c>
       <c r="C12" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D12" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E12" s="1">
-        <v>7083.0479</v>
+        <v>7068.4522</v>
       </c>
       <c r="F12" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>84701.2118</v>
+        <v>84357.73579999999</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>84701.2118</v>
+        <v>84357.73579999999</v>
       </c>
       <c r="K12" s="1">
-        <v>102784.853</v>
+        <v>102779.2278</v>
       </c>
       <c r="L12" s="1">
-        <v>14.5114</v>
+        <v>14.5406</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0342</v>
+        <v>-0.0347</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>12.2036</v>
       </c>
       <c r="C13" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D13" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E13" s="1">
-        <v>7919.2872</v>
+        <v>7903.0165</v>
       </c>
       <c r="F13" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>96643.81299999999</v>
+        <v>96252.4186</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>96643.81299999999</v>
+        <v>96252.4186</v>
       </c>
       <c r="K13" s="1">
-        <v>112784.853</v>
+        <v>112779.2278</v>
       </c>
       <c r="L13" s="1">
-        <v>14.2418</v>
+        <v>14.2704</v>
       </c>
       <c r="M13" s="1">
         <v>0.4</v>
       </c>
       <c r="N13" s="1">
-        <v>2549.8972</v>
+        <v>2544.6428</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7450.1028</v>
+        <v>-7455.3572</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0205</v>
+        <v>0.0201</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>12.9136</v>
       </c>
       <c r="C14" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D14" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E14" s="1">
-        <v>8738.717500000001</v>
+        <v>8720.805</v>
       </c>
       <c r="F14" s="1">
-        <v>-8738.717500000001</v>
+        <v>-8720.805</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>112848.3024</v>
+        <v>112391.9912</v>
       </c>
       <c r="I14" s="1">
-        <v>2549.8972</v>
+        <v>2544.6428</v>
       </c>
       <c r="J14" s="1">
-        <v>115398.1996</v>
+        <v>114936.634</v>
       </c>
       <c r="K14" s="1">
-        <v>122784.853</v>
+        <v>122779.2278</v>
       </c>
       <c r="L14" s="1">
-        <v>14.0507</v>
+        <v>14.0789</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112848.3024</v>
+        <v>112391.9912</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.08210000000000001</v>
+        <v>0.08169999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2153,8 +2153,8 @@
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
@@ -2224,16 +2224,16 @@
         <v>17.107</v>
       </c>
       <c r="C2" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D2" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>584.556</v>
+        <v>583.3863</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>16.8894</v>
       </c>
       <c r="C3" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D3" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E3" s="1">
-        <v>584.556</v>
+        <v>583.3863</v>
       </c>
       <c r="F3" s="1">
-        <v>592.0873</v>
+        <v>590.9048</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9872.742200000001</v>
+        <v>9833.326499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9872.742200000001</v>
+        <v>9833.326499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0127</v>
+        <v>-0.0167</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>16.4004</v>
       </c>
       <c r="C4" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D4" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E4" s="1">
-        <v>1176.6434</v>
+        <v>1174.2911</v>
       </c>
       <c r="F4" s="1">
-        <v>609.7412</v>
+        <v>608.5205</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19297.422</v>
+        <v>19220.3273</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19297.422</v>
+        <v>19220.3273</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>16.9975</v>
+        <v>17.0316</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.029</v>
+        <v>-0.0309</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>15.3877</v>
       </c>
       <c r="C5" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D5" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E5" s="1">
-        <v>1786.3846</v>
+        <v>1782.8116</v>
       </c>
       <c r="F5" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>27488.3503</v>
+        <v>27378.4598</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27488.3503</v>
+        <v>27378.4598</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>16.7937</v>
+        <v>16.8274</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0617</v>
+        <v>-0.063</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>14.6367</v>
       </c>
       <c r="C6" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D6" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E6" s="1">
-        <v>2436.2543</v>
+        <v>2431.3831</v>
       </c>
       <c r="F6" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>35658.7233</v>
+        <v>35516.1861</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>35658.7233</v>
+        <v>35516.1861</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>16.4186</v>
+        <v>16.4515</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0488</v>
+        <v>-0.0498</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>13.0061</v>
       </c>
       <c r="C7" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D7" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E7" s="1">
-        <v>3119.4684</v>
+        <v>3113.2323</v>
       </c>
       <c r="F7" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>40572.1181</v>
+        <v>40410.0668</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>40572.1181</v>
+        <v>40410.0668</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>16.0284</v>
+        <v>16.0605</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1096.3144</v>
+        <v>1094.1224</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8903.685600000001</v>
+        <v>-8905.8776</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.1114</v>
+        <v>-0.1122</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>13.835</v>
       </c>
       <c r="C8" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D8" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E8" s="1">
-        <v>3888.3384</v>
+        <v>3880.5625</v>
       </c>
       <c r="F8" s="1">
-        <v>802.0466</v>
+        <v>800.2858</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>53795.1618</v>
+        <v>53580.0902</v>
       </c>
       <c r="I8" s="1">
-        <v>1096.3144</v>
+        <v>1094.1224</v>
       </c>
       <c r="J8" s="1">
-        <v>54891.4763</v>
+        <v>54674.2126</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>15.4308</v>
+        <v>15.4617</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11096.3144</v>
+        <v>-11094.1224</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0854</v>
+        <v>0.08459999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>14.4216</v>
       </c>
       <c r="C9" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D9" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E9" s="1">
-        <v>4690.385</v>
+        <v>4680.8483</v>
       </c>
       <c r="F9" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>67642.8561</v>
+        <v>67370.5134</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>67642.8561</v>
+        <v>67370.5134</v>
       </c>
       <c r="K9" s="1">
-        <v>71096.3144</v>
+        <v>71094.12239999999</v>
       </c>
       <c r="L9" s="1">
-        <v>15.1579</v>
+        <v>15.1883</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0424</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>13.2404</v>
       </c>
       <c r="C10" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D10" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E10" s="1">
-        <v>5383.7893</v>
+        <v>5372.8659</v>
       </c>
       <c r="F10" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>71283.5242</v>
+        <v>70996.51240000001</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>71283.5242</v>
+        <v>70996.51240000001</v>
       </c>
       <c r="K10" s="1">
-        <v>81096.3144</v>
+        <v>81094.12239999999</v>
       </c>
       <c r="L10" s="1">
-        <v>15.0631</v>
+        <v>15.0933</v>
       </c>
       <c r="M10" s="1">
         <v>0.4</v>
       </c>
       <c r="N10" s="1">
-        <v>1688.5386</v>
+        <v>1685.1054</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8311.4614</v>
+        <v>-8314.8946</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0819</v>
+        <v>-0.0824</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>12.382</v>
       </c>
       <c r="C11" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D11" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E11" s="1">
-        <v>6139.0535</v>
+        <v>6126.6215</v>
       </c>
       <c r="F11" s="1">
-        <v>943.9944</v>
+        <v>941.8307</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>76013.76059999999</v>
+        <v>75707.88679999999</v>
       </c>
       <c r="I11" s="1">
-        <v>1688.5386</v>
+        <v>1685.1054</v>
       </c>
       <c r="J11" s="1">
-        <v>77702.29919999999</v>
+        <v>77392.99219999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91096.3144</v>
+        <v>91094.12239999999</v>
       </c>
       <c r="L11" s="1">
-        <v>14.8388</v>
+        <v>14.8686</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11688.5386</v>
+        <v>-11685.1054</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0441</v>
+        <v>-0.0445</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>11.9583</v>
       </c>
       <c r="C12" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D12" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E12" s="1">
-        <v>7083.0479</v>
+        <v>7068.4522</v>
       </c>
       <c r="F12" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>84701.2118</v>
+        <v>84357.73579999999</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>84701.2118</v>
+        <v>84357.73579999999</v>
       </c>
       <c r="K12" s="1">
-        <v>102784.853</v>
+        <v>102779.2278</v>
       </c>
       <c r="L12" s="1">
-        <v>14.5114</v>
+        <v>14.5406</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0342</v>
+        <v>-0.0347</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>12.2036</v>
       </c>
       <c r="C13" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D13" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E13" s="1">
-        <v>7919.2872</v>
+        <v>7903.0165</v>
       </c>
       <c r="F13" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>96643.81299999999</v>
+        <v>96252.4186</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>96643.81299999999</v>
+        <v>96252.4186</v>
       </c>
       <c r="K13" s="1">
-        <v>112784.853</v>
+        <v>112779.2278</v>
       </c>
       <c r="L13" s="1">
-        <v>14.2418</v>
+        <v>14.2704</v>
       </c>
       <c r="M13" s="1">
         <v>0.4</v>
       </c>
       <c r="N13" s="1">
-        <v>2549.8972</v>
+        <v>2544.6428</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7450.1028</v>
+        <v>-7455.3572</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0205</v>
+        <v>0.0201</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>12.9136</v>
       </c>
       <c r="C14" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D14" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E14" s="1">
-        <v>8738.717500000001</v>
+        <v>8720.805</v>
       </c>
       <c r="F14" s="1">
-        <v>-8738.717500000001</v>
+        <v>-8720.805</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>112848.3024</v>
+        <v>112391.9912</v>
       </c>
       <c r="I14" s="1">
-        <v>2549.8972</v>
+        <v>2544.6428</v>
       </c>
       <c r="J14" s="1">
-        <v>115398.1996</v>
+        <v>114936.634</v>
       </c>
       <c r="K14" s="1">
-        <v>122784.853</v>
+        <v>122779.2278</v>
       </c>
       <c r="L14" s="1">
-        <v>14.0507</v>
+        <v>14.0789</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112848.3024</v>
+        <v>112391.9912</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.08210000000000001</v>
+        <v>0.08169999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2921,8 +2921,8 @@
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
@@ -2992,16 +2992,16 @@
         <v>17.107</v>
       </c>
       <c r="C2" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D2" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>584.556</v>
+        <v>583.3863</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>16.8894</v>
       </c>
       <c r="C3" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D3" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E3" s="1">
-        <v>584.556</v>
+        <v>583.3863</v>
       </c>
       <c r="F3" s="1">
-        <v>592.0873</v>
+        <v>590.9048</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9872.742200000001</v>
+        <v>9833.326499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9872.742200000001</v>
+        <v>9833.326499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0127</v>
+        <v>-0.0167</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>16.4004</v>
       </c>
       <c r="C4" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D4" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E4" s="1">
-        <v>1176.6434</v>
+        <v>1174.2911</v>
       </c>
       <c r="F4" s="1">
-        <v>609.7412</v>
+        <v>608.5205</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19297.422</v>
+        <v>19220.3273</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19297.422</v>
+        <v>19220.3273</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>16.9975</v>
+        <v>17.0316</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.029</v>
+        <v>-0.0309</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>15.3877</v>
       </c>
       <c r="C5" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D5" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E5" s="1">
-        <v>1786.3846</v>
+        <v>1782.8116</v>
       </c>
       <c r="F5" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>27488.3503</v>
+        <v>27378.4598</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27488.3503</v>
+        <v>27378.4598</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>16.7937</v>
+        <v>16.8274</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0617</v>
+        <v>-0.063</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>14.6367</v>
       </c>
       <c r="C6" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D6" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E6" s="1">
-        <v>2436.2543</v>
+        <v>2431.3831</v>
       </c>
       <c r="F6" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>35658.7233</v>
+        <v>35516.1861</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>35658.7233</v>
+        <v>35516.1861</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>16.4186</v>
+        <v>16.4515</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0488</v>
+        <v>-0.0498</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>13.0061</v>
       </c>
       <c r="C7" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D7" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E7" s="1">
-        <v>3119.4684</v>
+        <v>3113.2323</v>
       </c>
       <c r="F7" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>40572.1181</v>
+        <v>40410.0668</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>40572.1181</v>
+        <v>40410.0668</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>16.0284</v>
+        <v>16.0605</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1096.3144</v>
+        <v>1094.1224</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8903.685600000001</v>
+        <v>-8905.8776</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.1114</v>
+        <v>-0.1122</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>13.835</v>
       </c>
       <c r="C8" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D8" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E8" s="1">
-        <v>3888.3384</v>
+        <v>3880.5625</v>
       </c>
       <c r="F8" s="1">
-        <v>802.0466</v>
+        <v>800.2858</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>53795.1618</v>
+        <v>53580.0902</v>
       </c>
       <c r="I8" s="1">
-        <v>1096.3144</v>
+        <v>1094.1224</v>
       </c>
       <c r="J8" s="1">
-        <v>54891.4763</v>
+        <v>54674.2126</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>15.4308</v>
+        <v>15.4617</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11096.3144</v>
+        <v>-11094.1224</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0854</v>
+        <v>0.08459999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>14.4216</v>
       </c>
       <c r="C9" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D9" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E9" s="1">
-        <v>4690.385</v>
+        <v>4680.8483</v>
       </c>
       <c r="F9" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>67642.8561</v>
+        <v>67370.5134</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>67642.8561</v>
+        <v>67370.5134</v>
       </c>
       <c r="K9" s="1">
-        <v>71096.3144</v>
+        <v>71094.12239999999</v>
       </c>
       <c r="L9" s="1">
-        <v>15.1579</v>
+        <v>15.1883</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0424</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>13.2404</v>
       </c>
       <c r="C10" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D10" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E10" s="1">
-        <v>5383.7893</v>
+        <v>5372.8659</v>
       </c>
       <c r="F10" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>71283.5242</v>
+        <v>70996.51240000001</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>71283.5242</v>
+        <v>70996.51240000001</v>
       </c>
       <c r="K10" s="1">
-        <v>81096.3144</v>
+        <v>81094.12239999999</v>
       </c>
       <c r="L10" s="1">
-        <v>15.0631</v>
+        <v>15.0933</v>
       </c>
       <c r="M10" s="1">
         <v>0.4</v>
       </c>
       <c r="N10" s="1">
-        <v>1688.5386</v>
+        <v>1685.1054</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8311.4614</v>
+        <v>-8314.8946</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0819</v>
+        <v>-0.0824</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>12.382</v>
       </c>
       <c r="C11" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D11" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E11" s="1">
-        <v>6139.0535</v>
+        <v>6126.6215</v>
       </c>
       <c r="F11" s="1">
-        <v>943.9944</v>
+        <v>941.8307</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>76013.76059999999</v>
+        <v>75707.88679999999</v>
       </c>
       <c r="I11" s="1">
-        <v>1688.5386</v>
+        <v>1685.1054</v>
       </c>
       <c r="J11" s="1">
-        <v>77702.29919999999</v>
+        <v>77392.99219999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91096.3144</v>
+        <v>91094.12239999999</v>
       </c>
       <c r="L11" s="1">
-        <v>14.8388</v>
+        <v>14.8686</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11688.5386</v>
+        <v>-11685.1054</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0441</v>
+        <v>-0.0445</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>11.9583</v>
       </c>
       <c r="C12" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D12" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E12" s="1">
-        <v>7083.0479</v>
+        <v>7068.4522</v>
       </c>
       <c r="F12" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>84701.2118</v>
+        <v>84357.73579999999</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>84701.2118</v>
+        <v>84357.73579999999</v>
       </c>
       <c r="K12" s="1">
-        <v>102784.853</v>
+        <v>102779.2278</v>
       </c>
       <c r="L12" s="1">
-        <v>14.5114</v>
+        <v>14.5406</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0342</v>
+        <v>-0.0347</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>12.2036</v>
       </c>
       <c r="C13" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D13" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E13" s="1">
-        <v>7919.2872</v>
+        <v>7903.0165</v>
       </c>
       <c r="F13" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>96643.81299999999</v>
+        <v>96252.4186</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>96643.81299999999</v>
+        <v>96252.4186</v>
       </c>
       <c r="K13" s="1">
-        <v>112784.853</v>
+        <v>112779.2278</v>
       </c>
       <c r="L13" s="1">
-        <v>14.2418</v>
+        <v>14.2704</v>
       </c>
       <c r="M13" s="1">
         <v>0.4</v>
       </c>
       <c r="N13" s="1">
-        <v>2549.8972</v>
+        <v>2544.6428</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7450.1028</v>
+        <v>-7455.3572</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0205</v>
+        <v>0.0201</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>12.9136</v>
       </c>
       <c r="C14" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D14" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E14" s="1">
-        <v>8738.717500000001</v>
+        <v>8720.805</v>
       </c>
       <c r="F14" s="1">
-        <v>-8738.717500000001</v>
+        <v>-8720.805</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>112848.3024</v>
+        <v>112391.9912</v>
       </c>
       <c r="I14" s="1">
-        <v>2549.8972</v>
+        <v>2544.6428</v>
       </c>
       <c r="J14" s="1">
-        <v>115398.1996</v>
+        <v>114936.634</v>
       </c>
       <c r="K14" s="1">
-        <v>122784.853</v>
+        <v>122779.2278</v>
       </c>
       <c r="L14" s="1">
-        <v>14.0507</v>
+        <v>14.0789</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112848.3024</v>
+        <v>112391.9912</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.08210000000000001</v>
+        <v>0.08169999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3689,8 +3689,8 @@
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
@@ -3760,16 +3760,16 @@
         <v>17.107</v>
       </c>
       <c r="C2" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D2" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>584.556</v>
+        <v>583.3863</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>16.8894</v>
       </c>
       <c r="C3" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D3" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E3" s="1">
-        <v>584.556</v>
+        <v>583.3863</v>
       </c>
       <c r="F3" s="1">
-        <v>592.0873</v>
+        <v>590.9048</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9872.742200000001</v>
+        <v>9833.326499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9872.742200000001</v>
+        <v>9833.326499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0127</v>
+        <v>-0.0167</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>16.4004</v>
       </c>
       <c r="C4" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D4" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E4" s="1">
-        <v>1176.6434</v>
+        <v>1174.2911</v>
       </c>
       <c r="F4" s="1">
-        <v>609.7412</v>
+        <v>608.5205</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19297.422</v>
+        <v>19220.3273</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19297.422</v>
+        <v>19220.3273</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>16.9975</v>
+        <v>17.0316</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.029</v>
+        <v>-0.0309</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>15.3877</v>
       </c>
       <c r="C5" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D5" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E5" s="1">
-        <v>1786.3846</v>
+        <v>1782.8116</v>
       </c>
       <c r="F5" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>27488.3503</v>
+        <v>27378.4598</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27488.3503</v>
+        <v>27378.4598</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>16.7937</v>
+        <v>16.8274</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0617</v>
+        <v>-0.063</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>14.6367</v>
       </c>
       <c r="C6" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D6" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E6" s="1">
-        <v>2436.2543</v>
+        <v>2431.3831</v>
       </c>
       <c r="F6" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>35658.7233</v>
+        <v>35516.1861</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>35658.7233</v>
+        <v>35516.1861</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>16.4186</v>
+        <v>16.4515</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0488</v>
+        <v>-0.0498</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>13.0061</v>
       </c>
       <c r="C7" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D7" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E7" s="1">
-        <v>3119.4684</v>
+        <v>3113.2323</v>
       </c>
       <c r="F7" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>40572.1181</v>
+        <v>40410.0668</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>40572.1181</v>
+        <v>40410.0668</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>16.0284</v>
+        <v>16.0605</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1096.3144</v>
+        <v>1094.1224</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8903.685600000001</v>
+        <v>-8905.8776</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.1114</v>
+        <v>-0.1122</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>13.835</v>
       </c>
       <c r="C8" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D8" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E8" s="1">
-        <v>3888.3384</v>
+        <v>3880.5625</v>
       </c>
       <c r="F8" s="1">
-        <v>802.0466</v>
+        <v>800.2858</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>53795.1618</v>
+        <v>53580.0902</v>
       </c>
       <c r="I8" s="1">
-        <v>1096.3144</v>
+        <v>1094.1224</v>
       </c>
       <c r="J8" s="1">
-        <v>54891.4763</v>
+        <v>54674.2126</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>15.4308</v>
+        <v>15.4617</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11096.3144</v>
+        <v>-11094.1224</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0854</v>
+        <v>0.08459999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>14.4216</v>
       </c>
       <c r="C9" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D9" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E9" s="1">
-        <v>4690.385</v>
+        <v>4680.8483</v>
       </c>
       <c r="F9" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>67642.8561</v>
+        <v>67370.5134</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>67642.8561</v>
+        <v>67370.5134</v>
       </c>
       <c r="K9" s="1">
-        <v>71096.3144</v>
+        <v>71094.12239999999</v>
       </c>
       <c r="L9" s="1">
-        <v>15.1579</v>
+        <v>15.1883</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0424</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>13.2404</v>
       </c>
       <c r="C10" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D10" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E10" s="1">
-        <v>5383.7893</v>
+        <v>5372.8659</v>
       </c>
       <c r="F10" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>71283.5242</v>
+        <v>70996.51240000001</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>71283.5242</v>
+        <v>70996.51240000001</v>
       </c>
       <c r="K10" s="1">
-        <v>81096.3144</v>
+        <v>81094.12239999999</v>
       </c>
       <c r="L10" s="1">
-        <v>15.0631</v>
+        <v>15.0933</v>
       </c>
       <c r="M10" s="1">
         <v>0.4</v>
       </c>
       <c r="N10" s="1">
-        <v>1688.5386</v>
+        <v>1685.1054</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8311.4614</v>
+        <v>-8314.8946</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0819</v>
+        <v>-0.0824</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>12.382</v>
       </c>
       <c r="C11" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D11" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E11" s="1">
-        <v>6139.0535</v>
+        <v>6126.6215</v>
       </c>
       <c r="F11" s="1">
-        <v>943.9944</v>
+        <v>941.8307</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>76013.76059999999</v>
+        <v>75707.88679999999</v>
       </c>
       <c r="I11" s="1">
-        <v>1688.5386</v>
+        <v>1685.1054</v>
       </c>
       <c r="J11" s="1">
-        <v>77702.29919999999</v>
+        <v>77392.99219999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91096.3144</v>
+        <v>91094.12239999999</v>
       </c>
       <c r="L11" s="1">
-        <v>14.8388</v>
+        <v>14.8686</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11688.5386</v>
+        <v>-11685.1054</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0441</v>
+        <v>-0.0445</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>11.9583</v>
       </c>
       <c r="C12" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D12" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E12" s="1">
-        <v>7083.0479</v>
+        <v>7068.4522</v>
       </c>
       <c r="F12" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>84701.2118</v>
+        <v>84357.73579999999</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>84701.2118</v>
+        <v>84357.73579999999</v>
       </c>
       <c r="K12" s="1">
-        <v>102784.853</v>
+        <v>102779.2278</v>
       </c>
       <c r="L12" s="1">
-        <v>14.5114</v>
+        <v>14.5406</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0342</v>
+        <v>-0.0347</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>12.2036</v>
       </c>
       <c r="C13" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D13" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E13" s="1">
-        <v>7919.2872</v>
+        <v>7903.0165</v>
       </c>
       <c r="F13" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>96643.81299999999</v>
+        <v>96252.4186</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>96643.81299999999</v>
+        <v>96252.4186</v>
       </c>
       <c r="K13" s="1">
-        <v>112784.853</v>
+        <v>112779.2278</v>
       </c>
       <c r="L13" s="1">
-        <v>14.2418</v>
+        <v>14.2704</v>
       </c>
       <c r="M13" s="1">
         <v>0.4</v>
       </c>
       <c r="N13" s="1">
-        <v>2549.8972</v>
+        <v>2544.6428</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7450.1028</v>
+        <v>-7455.3572</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0205</v>
+        <v>0.0201</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>12.9136</v>
       </c>
       <c r="C14" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D14" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E14" s="1">
-        <v>8738.717500000001</v>
+        <v>8720.805</v>
       </c>
       <c r="F14" s="1">
-        <v>-8738.717500000001</v>
+        <v>-8720.805</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>112848.3024</v>
+        <v>112391.9912</v>
       </c>
       <c r="I14" s="1">
-        <v>2549.8972</v>
+        <v>2544.6428</v>
       </c>
       <c r="J14" s="1">
-        <v>115398.1996</v>
+        <v>114936.634</v>
       </c>
       <c r="K14" s="1">
-        <v>122784.853</v>
+        <v>122779.2278</v>
       </c>
       <c r="L14" s="1">
-        <v>14.0507</v>
+        <v>14.0789</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112848.3024</v>
+        <v>112391.9912</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.08210000000000001</v>
+        <v>0.08169999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>14.0387</v>
+        <v>14.0669</v>
       </c>
       <c r="D3" s="1">
-        <v>14.0507</v>
+        <v>14.0789</v>
       </c>
       <c r="E3" s="1">
-        <v>14.0507</v>
+        <v>14.0789</v>
       </c>
       <c r="F3" s="1">
-        <v>14.0507</v>
+        <v>14.0789</v>
       </c>
       <c r="G3" s="1">
-        <v>14.0507</v>
+        <v>14.0789</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.2598</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1931</v>
+        <v>-0.2058</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1934</v>
+        <v>-0.2061</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1934</v>
+        <v>-0.2061</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1934</v>
+        <v>-0.2061</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1934</v>
+        <v>-0.2061</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.189</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2056</v>
+        <v>0.2059</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2063</v>
+        <v>0.2066</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2063</v>
+        <v>0.2066</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2063</v>
+        <v>0.2066</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2063</v>
+        <v>0.2066</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-1.4817</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.038</v>
+        <v>-1.0982</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.036</v>
+        <v>-1.0961</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.036</v>
+        <v>-1.0961</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.036</v>
+        <v>-1.0961</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.036</v>
+        <v>-1.0961</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0704</v>
+        <v>-0.0774</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.07049999999999999</v>
+        <v>-0.0775</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.07049999999999999</v>
+        <v>-0.0775</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.07049999999999999</v>
+        <v>-0.0775</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.07049999999999999</v>
+        <v>-0.0775</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5269.0874</v>
+        <v>5258.4715</v>
       </c>
       <c r="D8" s="1">
-        <v>5334.7503</v>
+        <v>5323.8706</v>
       </c>
       <c r="E8" s="1">
-        <v>5334.7503</v>
+        <v>5323.8706</v>
       </c>
       <c r="F8" s="1">
-        <v>5334.7503</v>
+        <v>5323.8706</v>
       </c>
       <c r="G8" s="1">
-        <v>5334.7503</v>
+        <v>5323.8706</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P49_KFSDIV.xlsx
+++ b/output/1Y_P49_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>17.107</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>16.8894</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>16.4004</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>15.3877</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6367</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.0061</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.835</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.4216</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.2404</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.382</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.9583</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2036</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.9136</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>17.107</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>16.8894</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>16.4004</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>15.3877</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6367</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.0061</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.835</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.4216</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.2404</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.382</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.9583</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2036</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.9136</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>17.107</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>16.8894</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>16.4004</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>15.3877</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6367</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.0061</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.835</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.4216</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.2404</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.382</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.9583</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2036</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.9136</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>17.107</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>16.8894</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>16.4004</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>15.3877</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6367</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.0061</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.835</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.4216</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.2404</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.382</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.9583</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2036</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.9136</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>17.107</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>16.8894</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>16.4004</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>15.3877</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6367</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.0061</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.835</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.4216</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.2404</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.382</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.9583</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2036</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.9136</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>6767.1892</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9398</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9383</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9383</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9383</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9383</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
